--- a/Summer_flounder_SVLW_SELEX_Age_Lencm.xlsx
+++ b/Summer_flounder_SVLW_SELEX_Age_Lencm.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark.terceiro\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22800" windowHeight="4320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24340" windowHeight="12980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NEFSC SV L-W " sheetId="2" r:id="rId1"/>
@@ -24,8 +19,11 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -105,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000"/>
@@ -264,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -299,7 +297,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -476,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,15 +488,15 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="12"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="12"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="3.6640625" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="12"/>
+    <col min="12" max="12" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -528,7 +526,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -552,7 +550,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -588,7 +586,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15">
       <c r="A4" s="10">
         <v>10</v>
       </c>
@@ -628,7 +626,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15">
       <c r="A5" s="10">
         <v>10.5</v>
       </c>
@@ -669,7 +667,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15">
       <c r="A6" s="10">
         <v>11</v>
       </c>
@@ -710,7 +708,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15">
       <c r="A7" s="10">
         <v>11.5</v>
       </c>
@@ -751,7 +749,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15">
       <c r="A8" s="10">
         <v>12</v>
       </c>
@@ -792,7 +790,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15">
       <c r="A9" s="10">
         <v>12.5</v>
       </c>
@@ -833,7 +831,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15">
       <c r="A10" s="10">
         <v>13</v>
       </c>
@@ -874,7 +872,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15">
       <c r="A11" s="10">
         <v>13.5</v>
       </c>
@@ -915,7 +913,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15">
       <c r="A12" s="10">
         <v>14</v>
       </c>
@@ -956,7 +954,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15">
       <c r="A13" s="10">
         <v>14.5</v>
       </c>
@@ -997,7 +995,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15">
       <c r="A14" s="10">
         <v>15</v>
       </c>
@@ -1038,7 +1036,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15">
       <c r="A15" s="10">
         <v>15.5</v>
       </c>
@@ -1079,7 +1077,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15">
       <c r="A16" s="10">
         <v>16</v>
       </c>
@@ -1120,7 +1118,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="15">
       <c r="A17" s="10">
         <v>16.5</v>
       </c>
@@ -1161,7 +1159,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="15">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1202,7 +1200,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="15">
       <c r="A19" s="10">
         <v>17.5</v>
       </c>
@@ -1230,11 +1228,11 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="3"/>
-        <v>44.449999999999989</v>
+        <v>44.45000000000001</v>
       </c>
       <c r="L19" s="10">
         <f t="shared" si="4"/>
-        <v>17.499999999999996</v>
+        <v>17.500000000000004</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1243,7 +1241,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="15">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -1284,7 +1282,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="15">
       <c r="A21" s="10">
         <v>18.5</v>
       </c>
@@ -1325,7 +1323,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="15">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -1366,7 +1364,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="15">
       <c r="A23" s="10">
         <v>19.5</v>
       </c>
@@ -1407,7 +1405,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="15">
       <c r="A24" s="10">
         <v>20</v>
       </c>
@@ -1448,7 +1446,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="15">
       <c r="A25" s="10">
         <v>20.5</v>
       </c>
@@ -1489,7 +1487,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="15">
       <c r="A26" s="10">
         <v>21</v>
       </c>
@@ -1530,7 +1528,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15">
       <c r="A27" s="10">
         <v>21.5</v>
       </c>
@@ -1571,7 +1569,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="15">
       <c r="A28" s="10">
         <v>22</v>
       </c>
@@ -1612,7 +1610,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="15">
       <c r="A29" s="10">
         <v>22.5</v>
       </c>
@@ -1653,7 +1651,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="15">
       <c r="A30" s="10">
         <v>23</v>
       </c>
@@ -1694,7 +1692,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="15">
       <c r="A31" s="10">
         <v>23.5</v>
       </c>
@@ -1735,7 +1733,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="15">
       <c r="A32" s="10">
         <v>24</v>
       </c>
@@ -1776,7 +1774,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="15">
       <c r="A33" s="10">
         <v>24.5</v>
       </c>
@@ -1817,7 +1815,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15">
       <c r="A34" s="10">
         <v>25</v>
       </c>
@@ -1858,7 +1856,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="15">
       <c r="A35" s="10">
         <v>25.5</v>
       </c>
@@ -1899,7 +1897,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15">
       <c r="A36" s="10">
         <v>26</v>
       </c>
@@ -1940,7 +1938,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15">
       <c r="A37" s="10">
         <v>26.5</v>
       </c>
@@ -1981,7 +1979,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15">
       <c r="A38" s="10">
         <v>27</v>
       </c>
@@ -2022,7 +2020,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15">
       <c r="A39" s="10">
         <v>27.5</v>
       </c>
@@ -2063,7 +2061,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15">
       <c r="A40" s="10">
         <v>28</v>
       </c>
@@ -2104,7 +2102,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15">
       <c r="A41" s="10">
         <v>28.5</v>
       </c>
@@ -2145,7 +2143,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15">
       <c r="A42" s="10">
         <v>29</v>
       </c>
@@ -2186,7 +2184,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="15">
       <c r="A43" s="10">
         <v>29.5</v>
       </c>
@@ -2227,7 +2225,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="15">
       <c r="A44" s="10">
         <v>30</v>
       </c>
@@ -2268,7 +2266,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="15">
       <c r="A45" s="10">
         <v>30.5</v>
       </c>
@@ -2309,7 +2307,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="15">
       <c r="A46" s="10">
         <v>31</v>
       </c>
@@ -2350,7 +2348,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="15">
       <c r="A47" s="10">
         <v>31.5</v>
       </c>
@@ -2391,7 +2389,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="15">
       <c r="A48" s="10">
         <v>32</v>
       </c>
@@ -2432,7 +2430,7 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="15">
       <c r="A49" s="10">
         <v>32.5</v>
       </c>
@@ -2473,7 +2471,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="15">
       <c r="A50" s="10">
         <v>33</v>
       </c>
@@ -2514,7 +2512,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="15">
       <c r="A51" s="10">
         <v>33.5</v>
       </c>
@@ -2555,7 +2553,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="15">
       <c r="A52" s="10">
         <v>34</v>
       </c>
@@ -2596,7 +2594,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="15">
       <c r="A53" s="10">
         <v>34.5</v>
       </c>
@@ -2637,7 +2635,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="15">
       <c r="A54" s="10">
         <v>35</v>
       </c>
@@ -2678,7 +2676,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="15">
       <c r="A55" s="10">
         <v>35.5</v>
       </c>
@@ -2719,7 +2717,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
     </row>
-    <row r="56" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="15">
       <c r="A56" s="10">
         <v>36</v>
       </c>
@@ -2760,7 +2758,7 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="15">
       <c r="A57" s="10">
         <v>36.5</v>
       </c>
@@ -2801,7 +2799,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="15">
       <c r="A58" s="10">
         <v>37</v>
       </c>
@@ -2842,7 +2840,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2862,7 +2860,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2882,7 +2880,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="15">
       <c r="A61" s="10"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2902,7 +2900,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
     </row>
-    <row r="62" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2922,7 +2920,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
     </row>
-    <row r="63" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2942,7 +2940,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="15">
       <c r="A64" s="10"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2962,7 +2960,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2982,7 +2980,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3002,7 +3000,7 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
     </row>
-    <row r="67" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="15">
       <c r="A67" s="10"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3022,7 +3020,7 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3042,7 +3040,7 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
     </row>
-    <row r="69" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3062,7 +3060,7 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
     </row>
-    <row r="70" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="15">
       <c r="A70" s="10"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3082,7 +3080,7 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
     </row>
-    <row r="71" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="15">
       <c r="A71" s="10"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3102,7 +3100,7 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
     </row>
-    <row r="72" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="15">
       <c r="A72" s="10"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3122,7 +3120,7 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="73" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="15">
       <c r="A73" s="10"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3142,7 +3140,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
     </row>
-    <row r="74" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="15">
       <c r="A74" s="10"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3162,7 +3160,7 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="15">
       <c r="A75" s="10"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3182,7 +3180,7 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
     </row>
-    <row r="76" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="15">
       <c r="A76" s="10"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3202,7 +3200,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="15">
       <c r="A77" s="10"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3222,7 +3220,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="15">
       <c r="A78" s="10"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3242,7 +3240,7 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
     </row>
-    <row r="79" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="15">
       <c r="A79" s="10"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3262,7 +3260,7 @@
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
     </row>
-    <row r="80" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="15">
       <c r="A80" s="10"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3282,7 +3280,7 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
     </row>
-    <row r="81" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="15">
       <c r="A81" s="10"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3302,7 +3300,7 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
     </row>
-    <row r="82" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="15">
       <c r="A82" s="10"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3322,7 +3320,7 @@
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
     </row>
-    <row r="83" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="15">
       <c r="A83" s="10"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3342,7 +3340,7 @@
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
     </row>
-    <row r="84" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="15">
       <c r="A84" s="10"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3362,7 +3360,7 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
     </row>
-    <row r="85" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="15">
       <c r="A85" s="10"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3382,7 +3380,7 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
     </row>
-    <row r="86" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="15">
       <c r="A86" s="10"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3402,7 +3400,7 @@
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
     </row>
-    <row r="87" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="15">
       <c r="A87" s="10"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3422,7 +3420,7 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
     </row>
-    <row r="88" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="15">
       <c r="A88" s="10"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3442,7 +3440,7 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
     </row>
-    <row r="89" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="15">
       <c r="A89" s="10"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3462,7 +3460,7 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
     </row>
-    <row r="90" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="15">
       <c r="A90" s="10"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3482,7 +3480,7 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
     </row>
-    <row r="91" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="15">
       <c r="A91" s="10"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3502,7 +3500,7 @@
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
     </row>
-    <row r="92" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="15">
       <c r="A92" s="10"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3522,7 +3520,7 @@
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
     </row>
-    <row r="93" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="15">
       <c r="A93" s="10"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3542,7 +3540,7 @@
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
     </row>
-    <row r="94" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="15">
       <c r="A94" s="10"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3562,7 +3560,7 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
     </row>
-    <row r="95" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="15">
       <c r="A95" s="10"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3582,7 +3580,7 @@
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
     </row>
-    <row r="96" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="15">
       <c r="A96" s="10"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3602,7 +3600,7 @@
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
     </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="15">
       <c r="A97" s="10"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3622,7 +3620,7 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
     </row>
-    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="15">
       <c r="A98" s="10"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3642,7 +3640,7 @@
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
     </row>
-    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="15">
       <c r="A99" s="10"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3662,7 +3660,7 @@
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
     </row>
-    <row r="100" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="15">
       <c r="A100" s="10"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3682,7 +3680,7 @@
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
     </row>
-    <row r="101" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="15">
       <c r="A101" s="10"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3702,7 +3700,7 @@
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
     </row>
-    <row r="102" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="15">
       <c r="A102" s="10"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3722,7 +3720,7 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
     </row>
-    <row r="103" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="15">
       <c r="A103" s="10"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3742,7 +3740,7 @@
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
     </row>
-    <row r="104" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="15">
       <c r="A104" s="10"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3762,7 +3760,7 @@
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
     </row>
-    <row r="105" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" ht="15">
       <c r="A105" s="10"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3782,7 +3780,7 @@
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
     </row>
-    <row r="106" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" ht="15">
       <c r="A106" s="10"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3802,7 +3800,7 @@
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
     </row>
-    <row r="107" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" ht="15">
       <c r="A107" s="10"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3822,7 +3820,7 @@
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
     </row>
-    <row r="108" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" ht="15">
       <c r="A108" s="10"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3842,7 +3840,7 @@
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
     </row>
-    <row r="109" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" ht="15">
       <c r="A109" s="10"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3862,7 +3860,7 @@
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
     </row>
-    <row r="110" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="15">
       <c r="A110" s="10"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3882,7 +3880,7 @@
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
     </row>
-    <row r="111" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" ht="15">
       <c r="A111" s="10"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3902,7 +3900,7 @@
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
     </row>
-    <row r="112" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" ht="15">
       <c r="A112" s="10"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3922,7 +3920,7 @@
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
     </row>
-    <row r="113" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" ht="15">
       <c r="A113" s="10"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3942,7 +3940,7 @@
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
     </row>
-    <row r="114" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" ht="15">
       <c r="A114" s="10"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3962,7 +3960,7 @@
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
     </row>
-    <row r="115" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" ht="15">
       <c r="A115" s="10"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3982,7 +3980,7 @@
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
     </row>
-    <row r="116" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" ht="15">
       <c r="A116" s="10"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4002,7 +4000,7 @@
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
     </row>
-    <row r="117" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" ht="15">
       <c r="A117" s="10"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4022,7 +4020,7 @@
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
     </row>
-    <row r="118" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" ht="15">
       <c r="A118" s="10"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4042,7 +4040,7 @@
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
     </row>
-    <row r="119" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" ht="15">
       <c r="A119" s="10"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4062,7 +4060,7 @@
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
     </row>
-    <row r="120" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" ht="15">
       <c r="A120" s="10"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4082,7 +4080,7 @@
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
     </row>
-    <row r="121" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" ht="15">
       <c r="A121" s="10"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4102,7 +4100,7 @@
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
     </row>
-    <row r="122" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" ht="15">
       <c r="A122" s="10"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4122,7 +4120,7 @@
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
     </row>
-    <row r="123" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" ht="15">
       <c r="A123" s="10"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4142,7 +4140,7 @@
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
     </row>
-    <row r="124" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" ht="15">
       <c r="A124" s="10"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4162,7 +4160,7 @@
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
     </row>
-    <row r="125" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" ht="15">
       <c r="A125" s="10"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4182,7 +4180,7 @@
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
     </row>
-    <row r="126" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" ht="15">
       <c r="A126" s="10"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4202,7 +4200,7 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
     </row>
-    <row r="127" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" ht="15">
       <c r="A127" s="10"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4222,7 +4220,7 @@
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
     </row>
-    <row r="128" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" ht="15">
       <c r="A128" s="10"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4242,7 +4240,7 @@
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
     </row>
-    <row r="129" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" ht="15">
       <c r="A129" s="10"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4262,7 +4260,7 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
     </row>
-    <row r="130" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" ht="15">
       <c r="A130" s="10"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4282,7 +4280,7 @@
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
     </row>
-    <row r="131" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" ht="15">
       <c r="A131" s="10"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4302,7 +4300,7 @@
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
     </row>
-    <row r="132" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" ht="15">
       <c r="A132" s="10"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4322,7 +4320,7 @@
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
     </row>
-    <row r="133" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" ht="15">
       <c r="A133" s="10"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4342,7 +4340,7 @@
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
     </row>
-    <row r="134" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" ht="15">
       <c r="A134" s="10"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4362,7 +4360,7 @@
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
     </row>
-    <row r="135" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" ht="15">
       <c r="A135" s="10"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4382,7 +4380,7 @@
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
     </row>
-    <row r="136" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" ht="15">
       <c r="A136" s="10"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4402,7 +4400,7 @@
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
     </row>
-    <row r="137" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" ht="15">
       <c r="A137" s="10"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4422,7 +4420,7 @@
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
     </row>
-    <row r="138" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" ht="15">
       <c r="A138" s="10"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4442,7 +4440,7 @@
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
     </row>
-    <row r="139" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" ht="15">
       <c r="A139" s="10"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4462,7 +4460,7 @@
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
     </row>
-    <row r="140" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" ht="15">
       <c r="A140" s="10"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4482,7 +4480,7 @@
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
     </row>
-    <row r="141" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" ht="15">
       <c r="A141" s="10"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4502,7 +4500,7 @@
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
     </row>
-    <row r="142" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" ht="15">
       <c r="A142" s="10"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4522,7 +4520,7 @@
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
     </row>
-    <row r="143" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" ht="15">
       <c r="A143" s="10"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4542,7 +4540,7 @@
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
     </row>
-    <row r="144" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" ht="15">
       <c r="A144" s="10"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4562,7 +4560,7 @@
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
     </row>
-    <row r="145" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" ht="15">
       <c r="A145" s="10"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4582,7 +4580,7 @@
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
     </row>
-    <row r="146" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" ht="15">
       <c r="A146" s="10"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4602,7 +4600,7 @@
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
     </row>
-    <row r="147" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" ht="15">
       <c r="A147" s="10"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4622,7 +4620,7 @@
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
     </row>
-    <row r="148" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" ht="15">
       <c r="A148" s="10"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4642,7 +4640,7 @@
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
     </row>
-    <row r="149" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" ht="15">
       <c r="A149" s="10"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4662,7 +4660,7 @@
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
     </row>
-    <row r="150" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" ht="15">
       <c r="A150" s="10"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4682,7 +4680,7 @@
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
     </row>
-    <row r="151" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" ht="15">
       <c r="A151" s="10"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4702,7 +4700,7 @@
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
     </row>
-    <row r="152" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" ht="15">
       <c r="A152" s="10"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4722,7 +4720,7 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
     </row>
-    <row r="153" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" ht="15">
       <c r="A153" s="10"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4742,7 +4740,7 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
     </row>
-    <row r="154" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" ht="15">
       <c r="A154" s="10"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4762,7 +4760,7 @@
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
     </row>
-    <row r="155" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" ht="15">
       <c r="A155" s="10"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4782,7 +4780,7 @@
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
     </row>
-    <row r="156" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" ht="15">
       <c r="A156" s="10"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4802,7 +4800,7 @@
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
     </row>
-    <row r="157" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" ht="15">
       <c r="A157" s="10"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4822,7 +4820,7 @@
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
     </row>
-    <row r="158" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" ht="15">
       <c r="A158" s="10"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4842,7 +4840,7 @@
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
     </row>
-    <row r="159" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" ht="15">
       <c r="A159" s="10"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4862,7 +4860,7 @@
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
     </row>
-    <row r="160" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" ht="15">
       <c r="A160" s="10"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4882,7 +4880,7 @@
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
     </row>
-    <row r="161" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" ht="15">
       <c r="A161" s="10"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4902,7 +4900,7 @@
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
     </row>
-    <row r="162" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" ht="15">
       <c r="A162" s="10"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4922,7 +4920,7 @@
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
     </row>
-    <row r="163" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" ht="15">
       <c r="A163" s="10"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4942,7 +4940,7 @@
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
     </row>
-    <row r="164" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" ht="15">
       <c r="A164" s="10"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4962,7 +4960,7 @@
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
     </row>
-    <row r="165" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" ht="15">
       <c r="A165" s="10"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4982,7 +4980,7 @@
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
     </row>
-    <row r="166" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" ht="15">
       <c r="A166" s="10"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5002,7 +5000,7 @@
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
     </row>
-    <row r="167" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" ht="15">
       <c r="A167" s="10"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5022,7 +5020,7 @@
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
     </row>
-    <row r="168" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" ht="15">
       <c r="A168" s="10"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5042,7 +5040,7 @@
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
     </row>
-    <row r="169" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" ht="15">
       <c r="A169" s="10"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5062,7 +5060,7 @@
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
     </row>
-    <row r="170" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" ht="15">
       <c r="A170" s="10"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5082,7 +5080,7 @@
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
     </row>
-    <row r="171" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" ht="15">
       <c r="A171" s="10"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5102,7 +5100,7 @@
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
     </row>
-    <row r="172" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" ht="15">
       <c r="A172" s="10"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5122,7 +5120,7 @@
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
     </row>
-    <row r="173" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" ht="15">
       <c r="A173" s="10"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5142,7 +5140,7 @@
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
     </row>
-    <row r="174" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" ht="15">
       <c r="A174" s="10"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5162,7 +5160,7 @@
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
     </row>
-    <row r="175" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" ht="15">
       <c r="A175" s="10"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5182,7 +5180,7 @@
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
     </row>
-    <row r="176" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" ht="15">
       <c r="A176" s="10"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5202,7 +5200,7 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
     </row>
-    <row r="177" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" ht="15">
       <c r="A177" s="10"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5222,7 +5220,7 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
     </row>
-    <row r="178" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" ht="15">
       <c r="A178" s="10"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5242,7 +5240,7 @@
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
     </row>
-    <row r="179" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" ht="15">
       <c r="A179" s="10"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5262,7 +5260,7 @@
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
     </row>
-    <row r="180" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" ht="15">
       <c r="A180" s="10"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5282,7 +5280,7 @@
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
     </row>
-    <row r="181" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" ht="15">
       <c r="A181" s="10"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5302,7 +5300,7 @@
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
     </row>
-    <row r="182" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" ht="15">
       <c r="A182" s="10"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5322,7 +5320,7 @@
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
     </row>
-    <row r="183" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" ht="15">
       <c r="A183" s="10"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5342,7 +5340,7 @@
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
     </row>
-    <row r="184" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" ht="15">
       <c r="A184" s="10"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5362,7 +5360,7 @@
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
     </row>
-    <row r="185" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" ht="15">
       <c r="A185" s="10"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5382,7 +5380,7 @@
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
     </row>
-    <row r="186" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" ht="15">
       <c r="A186" s="10"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5402,7 +5400,7 @@
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
     </row>
-    <row r="187" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" ht="15">
       <c r="A187" s="10"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5422,7 +5420,7 @@
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
     </row>
-    <row r="188" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" ht="15">
       <c r="A188" s="10"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5442,7 +5440,7 @@
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
     </row>
-    <row r="189" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" ht="15">
       <c r="A189" s="10"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5462,7 +5460,7 @@
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
     </row>
-    <row r="190" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" ht="15">
       <c r="A190" s="10"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5482,7 +5480,7 @@
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
     </row>
-    <row r="191" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" ht="15">
       <c r="A191" s="10"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5502,7 +5500,7 @@
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
     </row>
-    <row r="192" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" ht="15">
       <c r="A192" s="10"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5522,7 +5520,7 @@
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
     </row>
-    <row r="193" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" ht="15">
       <c r="A193" s="10"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5542,7 +5540,7 @@
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
     </row>
-    <row r="194" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" ht="15">
       <c r="A194" s="10"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5562,7 +5560,7 @@
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
     </row>
-    <row r="195" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" ht="15">
       <c r="A195" s="10"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5582,7 +5580,7 @@
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
     </row>
-    <row r="196" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" ht="15">
       <c r="A196" s="10"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5602,7 +5600,7 @@
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
     </row>
-    <row r="197" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" ht="15">
       <c r="A197" s="10"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5622,7 +5620,7 @@
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
     </row>
-    <row r="198" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" ht="15">
       <c r="A198" s="10"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5642,7 +5640,7 @@
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
     </row>
-    <row r="199" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" ht="15">
       <c r="A199" s="10"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5662,7 +5660,7 @@
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
     </row>
-    <row r="200" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" ht="15">
       <c r="A200" s="10"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5682,7 +5680,7 @@
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
     </row>
-    <row r="201" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" ht="15">
       <c r="A201" s="10"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -5702,7 +5700,7 @@
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
     </row>
-    <row r="202" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" ht="15">
       <c r="A202" s="10"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -5722,7 +5720,7 @@
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
     </row>
-    <row r="203" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" ht="15">
       <c r="A203" s="10"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -5742,7 +5740,7 @@
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
     </row>
-    <row r="204" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" ht="15">
       <c r="A204" s="10"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -5762,7 +5760,7 @@
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
     </row>
-    <row r="205" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" ht="15">
       <c r="A205" s="10"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -5782,7 +5780,7 @@
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
     </row>
-    <row r="206" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" ht="15">
       <c r="A206" s="10"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -5802,7 +5800,7 @@
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
     </row>
-    <row r="207" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" ht="15">
       <c r="A207" s="10"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -5822,7 +5820,7 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
     </row>
-    <row r="208" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" ht="15">
       <c r="A208" s="10"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -5842,7 +5840,7 @@
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
     </row>
-    <row r="209" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" ht="15">
       <c r="A209" s="10"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -5862,7 +5860,7 @@
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
     </row>
-    <row r="210" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" ht="15">
       <c r="A210" s="10"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -5882,7 +5880,7 @@
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
     </row>
-    <row r="211" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" ht="15">
       <c r="A211" s="10"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -5902,7 +5900,7 @@
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
     </row>
-    <row r="212" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" ht="15">
       <c r="A212" s="10"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -5922,7 +5920,7 @@
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
     </row>
-    <row r="213" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" ht="15">
       <c r="A213" s="10"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -5942,7 +5940,7 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
     </row>
-    <row r="214" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" ht="15">
       <c r="A214" s="10"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -5962,7 +5960,7 @@
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
     </row>
-    <row r="215" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" ht="15">
       <c r="A215" s="10"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -5982,7 +5980,7 @@
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
     </row>
-    <row r="216" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" ht="15">
       <c r="A216" s="10"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6002,7 +6000,7 @@
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
     </row>
-    <row r="217" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" ht="15">
       <c r="A217" s="10"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6022,7 +6020,7 @@
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
     </row>
-    <row r="218" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" ht="15">
       <c r="A218" s="10"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6042,7 +6040,7 @@
       <c r="Q218" s="1"/>
       <c r="R218" s="1"/>
     </row>
-    <row r="219" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" ht="15">
       <c r="A219" s="10"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6062,7 +6060,7 @@
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
     </row>
-    <row r="220" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" ht="15">
       <c r="A220" s="10"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6082,7 +6080,7 @@
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
     </row>
-    <row r="221" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" ht="15">
       <c r="A221" s="10"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6102,7 +6100,7 @@
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
     </row>
-    <row r="222" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" ht="15">
       <c r="A222" s="10"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6122,7 +6120,7 @@
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
     </row>
-    <row r="223" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" ht="15">
       <c r="A223" s="10"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6142,7 +6140,7 @@
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
     </row>
-    <row r="224" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" ht="15">
       <c r="A224" s="10"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6162,7 +6160,7 @@
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
     </row>
-    <row r="225" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" ht="15">
       <c r="A225" s="10"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6182,7 +6180,7 @@
       <c r="Q225" s="1"/>
       <c r="R225" s="1"/>
     </row>
-    <row r="226" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" ht="15">
       <c r="A226" s="10"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6202,7 +6200,7 @@
       <c r="Q226" s="1"/>
       <c r="R226" s="1"/>
     </row>
-    <row r="227" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" ht="15">
       <c r="A227" s="10"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6222,7 +6220,7 @@
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
     </row>
-    <row r="228" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" ht="15">
       <c r="A228" s="10"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6242,7 +6240,7 @@
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
     </row>
-    <row r="229" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" ht="15">
       <c r="A229" s="10"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6262,7 +6260,7 @@
       <c r="Q229" s="1"/>
       <c r="R229" s="1"/>
     </row>
-    <row r="230" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" ht="15">
       <c r="A230" s="10"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6282,7 +6280,7 @@
       <c r="Q230" s="1"/>
       <c r="R230" s="1"/>
     </row>
-    <row r="231" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" ht="15">
       <c r="A231" s="10"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6302,7 +6300,7 @@
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
     </row>
-    <row r="232" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" ht="15">
       <c r="A232" s="10"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6322,7 +6320,7 @@
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
     </row>
-    <row r="233" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" ht="15">
       <c r="A233" s="10"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6342,7 +6340,7 @@
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
     </row>
-    <row r="234" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" ht="15">
       <c r="A234" s="10"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6362,7 +6360,7 @@
       <c r="Q234" s="1"/>
       <c r="R234" s="1"/>
     </row>
-    <row r="235" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" ht="15">
       <c r="A235" s="10"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6382,7 +6380,7 @@
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
     </row>
-    <row r="236" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" ht="15">
       <c r="A236" s="10"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -6402,7 +6400,7 @@
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
     </row>
-    <row r="237" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" ht="15">
       <c r="A237" s="10"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -6422,7 +6420,7 @@
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
     </row>
-    <row r="238" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" ht="15">
       <c r="A238" s="10"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -6442,7 +6440,7 @@
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
     </row>
-    <row r="239" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" ht="15">
       <c r="A239" s="10"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -6462,7 +6460,7 @@
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
     </row>
-    <row r="240" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" ht="15">
       <c r="A240" s="10"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -6482,7 +6480,7 @@
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
     </row>
-    <row r="241" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" ht="15">
       <c r="A241" s="10"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -6502,7 +6500,7 @@
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
     </row>
-    <row r="242" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" ht="15">
       <c r="A242" s="10"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -6522,7 +6520,7 @@
       <c r="Q242" s="1"/>
       <c r="R242" s="1"/>
     </row>
-    <row r="243" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" ht="15">
       <c r="A243" s="10"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -6542,7 +6540,7 @@
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
     </row>
-    <row r="244" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" ht="15">
       <c r="A244" s="10"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -6562,7 +6560,7 @@
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
     </row>
-    <row r="245" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" ht="15">
       <c r="A245" s="10"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -6582,7 +6580,7 @@
       <c r="Q245" s="1"/>
       <c r="R245" s="1"/>
     </row>
-    <row r="246" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" ht="15">
       <c r="A246" s="10"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -6602,7 +6600,7 @@
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
     </row>
-    <row r="247" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" ht="15">
       <c r="A247" s="10"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -6622,7 +6620,7 @@
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
     </row>
-    <row r="248" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" ht="15">
       <c r="A248" s="10"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -6642,7 +6640,7 @@
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
     </row>
-    <row r="249" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" ht="15">
       <c r="A249" s="10"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -6662,7 +6660,7 @@
       <c r="Q249" s="1"/>
       <c r="R249" s="1"/>
     </row>
-    <row r="250" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" ht="15">
       <c r="A250" s="10"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -6682,7 +6680,7 @@
       <c r="Q250" s="1"/>
       <c r="R250" s="1"/>
     </row>
-    <row r="251" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" ht="15">
       <c r="A251" s="10"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -6702,7 +6700,7 @@
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
     </row>
-    <row r="252" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" ht="15">
       <c r="A252" s="10"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -6722,7 +6720,7 @@
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
     </row>
-    <row r="253" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" ht="15">
       <c r="A253" s="10"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -6742,7 +6740,7 @@
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
     </row>
-    <row r="254" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" ht="15">
       <c r="A254" s="10"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -6762,7 +6760,7 @@
       <c r="Q254" s="1"/>
       <c r="R254" s="1"/>
     </row>
-    <row r="255" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" ht="15">
       <c r="A255" s="10"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -6782,7 +6780,7 @@
       <c r="Q255" s="1"/>
       <c r="R255" s="1"/>
     </row>
-    <row r="256" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" ht="15">
       <c r="A256" s="10"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -6802,7 +6800,7 @@
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
     </row>
-    <row r="257" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" ht="15">
       <c r="A257" s="10"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -6822,7 +6820,7 @@
       <c r="Q257" s="1"/>
       <c r="R257" s="1"/>
     </row>
-    <row r="258" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" ht="15">
       <c r="A258" s="10"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -6842,7 +6840,7 @@
       <c r="Q258" s="1"/>
       <c r="R258" s="1"/>
     </row>
-    <row r="259" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:18" ht="15">
       <c r="A259" s="10"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -6862,7 +6860,7 @@
       <c r="Q259" s="1"/>
       <c r="R259" s="1"/>
     </row>
-    <row r="260" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" ht="15">
       <c r="A260" s="10"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -6882,7 +6880,7 @@
       <c r="Q260" s="1"/>
       <c r="R260" s="1"/>
     </row>
-    <row r="261" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:18" ht="15">
       <c r="A261" s="10"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -6902,7 +6900,7 @@
       <c r="Q261" s="1"/>
       <c r="R261" s="1"/>
     </row>
-    <row r="262" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:18" ht="15">
       <c r="A262" s="10"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -6922,7 +6920,7 @@
       <c r="Q262" s="1"/>
       <c r="R262" s="1"/>
     </row>
-    <row r="263" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" ht="15">
       <c r="A263" s="10"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -6942,7 +6940,7 @@
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
     </row>
-    <row r="264" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" ht="15">
       <c r="A264" s="10"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -6962,7 +6960,7 @@
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
     </row>
-    <row r="265" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" ht="15">
       <c r="A265" s="10"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -6982,7 +6980,7 @@
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
     </row>
-    <row r="266" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:18" ht="15">
       <c r="A266" s="10"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7002,7 +7000,7 @@
       <c r="Q266" s="1"/>
       <c r="R266" s="1"/>
     </row>
-    <row r="267" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" ht="15">
       <c r="A267" s="10"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -7022,7 +7020,7 @@
       <c r="Q267" s="1"/>
       <c r="R267" s="1"/>
     </row>
-    <row r="268" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" ht="15">
       <c r="A268" s="10"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -7042,7 +7040,7 @@
       <c r="Q268" s="1"/>
       <c r="R268" s="1"/>
     </row>
-    <row r="269" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" ht="15">
       <c r="A269" s="10"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -7062,7 +7060,7 @@
       <c r="Q269" s="1"/>
       <c r="R269" s="1"/>
     </row>
-    <row r="270" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:18" ht="15">
       <c r="A270" s="10"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -7082,7 +7080,7 @@
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
     </row>
-    <row r="271" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" ht="15">
       <c r="A271" s="10"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -7102,7 +7100,7 @@
       <c r="Q271" s="1"/>
       <c r="R271" s="1"/>
     </row>
-    <row r="272" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" ht="15">
       <c r="A272" s="10"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -7122,7 +7120,7 @@
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
     </row>
-    <row r="273" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:18" ht="15">
       <c r="A273" s="10"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -7142,7 +7140,7 @@
       <c r="Q273" s="1"/>
       <c r="R273" s="1"/>
     </row>
-    <row r="274" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" ht="15">
       <c r="A274" s="10"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -7162,7 +7160,7 @@
       <c r="Q274" s="1"/>
       <c r="R274" s="1"/>
     </row>
-    <row r="275" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:18" ht="15">
       <c r="A275" s="10"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -7182,7 +7180,7 @@
       <c r="Q275" s="1"/>
       <c r="R275" s="1"/>
     </row>
-    <row r="276" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" ht="15">
       <c r="A276" s="10"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -7202,7 +7200,7 @@
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
     </row>
-    <row r="277" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" ht="15">
       <c r="A277" s="10"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -7222,7 +7220,7 @@
       <c r="Q277" s="1"/>
       <c r="R277" s="1"/>
     </row>
-    <row r="278" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:18" ht="15">
       <c r="A278" s="10"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -7242,7 +7240,7 @@
       <c r="Q278" s="1"/>
       <c r="R278" s="1"/>
     </row>
-    <row r="279" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" ht="15">
       <c r="A279" s="10"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -7262,7 +7260,7 @@
       <c r="Q279" s="1"/>
       <c r="R279" s="1"/>
     </row>
-    <row r="280" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:18" ht="15">
       <c r="A280" s="10"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -7282,7 +7280,7 @@
       <c r="Q280" s="1"/>
       <c r="R280" s="1"/>
     </row>
-    <row r="281" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:18" ht="15">
       <c r="A281" s="10"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -7302,7 +7300,7 @@
       <c r="Q281" s="1"/>
       <c r="R281" s="1"/>
     </row>
-    <row r="282" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:18" ht="15">
       <c r="A282" s="10"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -7322,7 +7320,7 @@
       <c r="Q282" s="1"/>
       <c r="R282" s="1"/>
     </row>
-    <row r="283" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:18" ht="15">
       <c r="A283" s="10"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -7342,7 +7340,7 @@
       <c r="Q283" s="1"/>
       <c r="R283" s="1"/>
     </row>
-    <row r="284" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:18" ht="15">
       <c r="A284" s="10"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -7362,7 +7360,7 @@
       <c r="Q284" s="1"/>
       <c r="R284" s="1"/>
     </row>
-    <row r="285" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:18" ht="15">
       <c r="A285" s="10"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -7382,7 +7380,7 @@
       <c r="Q285" s="1"/>
       <c r="R285" s="1"/>
     </row>
-    <row r="286" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:18" ht="15">
       <c r="A286" s="10"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -7402,7 +7400,7 @@
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
     </row>
-    <row r="287" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:18" ht="15">
       <c r="A287" s="10"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -7422,7 +7420,7 @@
       <c r="Q287" s="1"/>
       <c r="R287" s="1"/>
     </row>
-    <row r="288" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:18" ht="15">
       <c r="A288" s="10"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -7442,7 +7440,7 @@
       <c r="Q288" s="1"/>
       <c r="R288" s="1"/>
     </row>
-    <row r="289" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:18" ht="15">
       <c r="A289" s="10"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -7462,7 +7460,7 @@
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
     </row>
-    <row r="290" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:18" ht="15">
       <c r="A290" s="10"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -7482,7 +7480,7 @@
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
     </row>
-    <row r="291" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:18" ht="15">
       <c r="A291" s="10"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -7502,7 +7500,7 @@
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
     </row>
-    <row r="292" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:18" ht="15">
       <c r="A292" s="10"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -7522,7 +7520,7 @@
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
     </row>
-    <row r="293" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:18" ht="15">
       <c r="A293" s="10"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -7542,7 +7540,7 @@
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
     </row>
-    <row r="294" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:18" ht="15">
       <c r="A294" s="10"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -7562,7 +7560,7 @@
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
     </row>
-    <row r="295" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:18" ht="15">
       <c r="A295" s="10"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -7582,7 +7580,7 @@
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
     </row>
-    <row r="296" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:18" ht="15">
       <c r="A296" s="10"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -7602,7 +7600,7 @@
       <c r="Q296" s="1"/>
       <c r="R296" s="1"/>
     </row>
-    <row r="297" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:18" ht="15">
       <c r="A297" s="10"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -7622,7 +7620,7 @@
       <c r="Q297" s="1"/>
       <c r="R297" s="1"/>
     </row>
-    <row r="298" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:18" ht="15">
       <c r="A298" s="10"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -7642,7 +7640,7 @@
       <c r="Q298" s="1"/>
       <c r="R298" s="1"/>
     </row>
-    <row r="299" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:18" ht="15">
       <c r="A299" s="10"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -7662,7 +7660,7 @@
       <c r="Q299" s="1"/>
       <c r="R299" s="1"/>
     </row>
-    <row r="300" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:18" ht="15">
       <c r="A300" s="10"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -7682,7 +7680,7 @@
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
     </row>
-    <row r="301" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:18" ht="15">
       <c r="A301" s="10"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -7702,7 +7700,7 @@
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
     </row>
-    <row r="302" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:18" ht="15">
       <c r="A302" s="10"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -7722,7 +7720,7 @@
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
     </row>
-    <row r="303" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:18" ht="15">
       <c r="A303" s="10"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -7742,7 +7740,7 @@
       <c r="Q303" s="1"/>
       <c r="R303" s="1"/>
     </row>
-    <row r="304" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:18" ht="15">
       <c r="A304" s="10"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -7762,7 +7760,7 @@
       <c r="Q304" s="1"/>
       <c r="R304" s="1"/>
     </row>
-    <row r="305" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:18" ht="15">
       <c r="A305" s="10"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -7782,7 +7780,7 @@
       <c r="Q305" s="1"/>
       <c r="R305" s="1"/>
     </row>
-    <row r="306" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:18" ht="15">
       <c r="A306" s="10"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -7802,7 +7800,7 @@
       <c r="Q306" s="1"/>
       <c r="R306" s="1"/>
     </row>
-    <row r="307" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:18" ht="15">
       <c r="A307" s="10"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -7822,7 +7820,7 @@
       <c r="Q307" s="1"/>
       <c r="R307" s="1"/>
     </row>
-    <row r="308" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:18" ht="15">
       <c r="A308" s="10"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -7842,7 +7840,7 @@
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
     </row>
-    <row r="309" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:18" ht="15">
       <c r="A309" s="10"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -7862,7 +7860,7 @@
       <c r="Q309" s="1"/>
       <c r="R309" s="1"/>
     </row>
-    <row r="310" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:18" ht="15">
       <c r="A310" s="10"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -7882,7 +7880,7 @@
       <c r="Q310" s="1"/>
       <c r="R310" s="1"/>
     </row>
-    <row r="311" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:18" ht="15">
       <c r="A311" s="10"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -7902,7 +7900,7 @@
       <c r="Q311" s="1"/>
       <c r="R311" s="1"/>
     </row>
-    <row r="312" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:18" ht="15">
       <c r="A312" s="10"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -7922,7 +7920,7 @@
       <c r="Q312" s="1"/>
       <c r="R312" s="1"/>
     </row>
-    <row r="313" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:18" ht="15">
       <c r="A313" s="10"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -7942,7 +7940,7 @@
       <c r="Q313" s="1"/>
       <c r="R313" s="1"/>
     </row>
-    <row r="314" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:18" ht="15">
       <c r="A314" s="10"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -7962,7 +7960,7 @@
       <c r="Q314" s="1"/>
       <c r="R314" s="1"/>
     </row>
-    <row r="315" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:18" ht="15">
       <c r="A315" s="10"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -7982,7 +7980,7 @@
       <c r="Q315" s="1"/>
       <c r="R315" s="1"/>
     </row>
-    <row r="316" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:18" ht="15">
       <c r="A316" s="10"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -8002,7 +8000,7 @@
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
     </row>
-    <row r="317" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:18" ht="15">
       <c r="A317" s="10"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -8022,7 +8020,7 @@
       <c r="Q317" s="1"/>
       <c r="R317" s="1"/>
     </row>
-    <row r="318" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:18" ht="15">
       <c r="A318" s="10"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -8042,7 +8040,7 @@
       <c r="Q318" s="1"/>
       <c r="R318" s="1"/>
     </row>
-    <row r="319" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:18" ht="15">
       <c r="A319" s="10"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -8064,7 +8062,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8076,14 +8079,14 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" customWidth="1"/>
-    <col min="10" max="17" width="10.77734375" customWidth="1"/>
+    <col min="1" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" customWidth="1"/>
+    <col min="10" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -8091,12 +8094,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -8122,7 +8125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -8148,7 +8151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="8">
         <v>0</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>7.3372999999999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -8200,7 +8203,7 @@
         <v>0.52590000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="8">
         <v>2</v>
       </c>
@@ -8226,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="8">
         <v>3</v>
       </c>
@@ -8252,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -8278,7 +8281,7 @@
         <v>0.95691000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="8">
         <v>5</v>
       </c>
@@ -8304,7 +8307,7 @@
         <v>0.54222999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="8">
         <v>6</v>
       </c>
@@ -8330,7 +8333,7 @@
         <v>0.43496000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -8359,7 +8362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="J13">
         <v>3.55809E-6</v>
       </c>
@@ -8367,7 +8370,7 @@
         <v>3.278</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -8417,7 +8420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -8467,7 +8470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15">
       <c r="A16" s="15">
         <v>0</v>
       </c>
@@ -8496,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="10">
-        <f t="shared" ref="K16:M23" si="0">(EXP((LN(B16)-(LN($J$13)))/$K$13))</f>
+        <f t="shared" ref="K16:K23" si="0">(EXP((LN(B16)-(LN($J$13)))/$K$13))</f>
         <v>24.166046335035691</v>
       </c>
       <c r="L16" s="15">
@@ -8521,7 +8524,7 @@
         <v>24.380254052986807</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="15">
       <c r="A17" s="15">
         <v>1</v>
       </c>
@@ -8575,7 +8578,7 @@
         <v>32.380856768111073</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15">
       <c r="A18" s="15">
         <v>2</v>
       </c>
@@ -8629,7 +8632,7 @@
         <v>37.800752670996751</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15">
       <c r="A19" s="15">
         <v>3</v>
       </c>
@@ -8683,7 +8686,7 @@
         <v>39.753611720571122</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15">
       <c r="A20" s="19">
         <v>4</v>
       </c>
@@ -8737,7 +8740,7 @@
         <v>40.840830242864328</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15">
       <c r="A21" s="15">
         <v>5</v>
       </c>
@@ -8791,7 +8794,7 @@
         <v>42.158800900623568</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="15">
       <c r="A22" s="15">
         <v>6</v>
       </c>
@@ -8845,7 +8848,7 @@
         <v>43.554622436210146</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15">
       <c r="A23" s="15" t="s">
         <v>17</v>
       </c>
@@ -8899,26 +8902,31 @@
         <v>45.838809582226716</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="B24" s="14"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="B25" s="14"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="B28" s="14"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="B29" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>